--- a/planos/all_images/split/test/images/results_sensores/13_flip_sensors.xlsx
+++ b/planos/all_images/split/test/images/results_sensores/13_flip_sensors.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.68491215448734</v>
+        <v>23.69979421125619</v>
       </c>
       <c r="F2" t="n">
-        <v>1.766835900345165</v>
+        <v>1.767946064993388</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2819491095781423</v>
+        <v>0.2821262680420327</v>
       </c>
       <c r="F3" t="n">
-        <v>1.835915788929136</v>
+        <v>1.837069358881833</v>
       </c>
       <c r="G3" t="n">
         <v>0.1</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2819491095781423</v>
+        <v>0.2821262680420327</v>
       </c>
       <c r="F4" t="n">
-        <v>1.835915788929136</v>
+        <v>1.837069358881833</v>
       </c>
       <c r="G4" t="n">
         <v>1.1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2819491095781423</v>
+        <v>0.2821262680420327</v>
       </c>
       <c r="F5" t="n">
-        <v>1.835915788929136</v>
+        <v>1.837069358881833</v>
       </c>
       <c r="G5" t="n">
         <v>1.7</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2819491095781423</v>
+        <v>0.2821262680420327</v>
       </c>
       <c r="F6" t="n">
-        <v>1.835915788929136</v>
+        <v>1.837069358881833</v>
       </c>
       <c r="G6" t="n">
         <v>1.1</v>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.71870407406018</v>
+        <v>22.7329790285772</v>
       </c>
       <c r="F7" t="n">
-        <v>1.741508000764536</v>
+        <v>1.74260225100966</v>
       </c>
       <c r="G7" t="n">
         <v>0.1</v>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.739081718012627</v>
+        <v>5.74268778331578</v>
       </c>
       <c r="F8" t="n">
-        <v>2.799959775096351</v>
+        <v>2.801719087524943</v>
       </c>
       <c r="G8" t="n">
         <v>0.1</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5.739081718012627</v>
+        <v>5.74268778331578</v>
       </c>
       <c r="F9" t="n">
-        <v>2.799959775096351</v>
+        <v>2.801719087524943</v>
       </c>
       <c r="G9" t="n">
         <v>0.6</v>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.739081718012627</v>
+        <v>5.74268778331578</v>
       </c>
       <c r="F10" t="n">
-        <v>2.799959775096351</v>
+        <v>2.801719087524943</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5.739081718012627</v>
+        <v>5.74268778331578</v>
       </c>
       <c r="F11" t="n">
-        <v>2.799959775096351</v>
+        <v>2.801719087524943</v>
       </c>
       <c r="G11" t="n">
         <v>1.1</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.071452743936083</v>
+        <v>8.076524319340663</v>
       </c>
       <c r="F12" t="n">
-        <v>1.657446600380366</v>
+        <v>1.658488031914387</v>
       </c>
       <c r="G12" t="n">
         <v>0.1</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8.071452743936083</v>
+        <v>8.076524319340663</v>
       </c>
       <c r="F13" t="n">
-        <v>1.657446600380366</v>
+        <v>1.658488031914387</v>
       </c>
       <c r="G13" t="n">
         <v>0.6</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.071452743936083</v>
+        <v>8.076524319340663</v>
       </c>
       <c r="F14" t="n">
-        <v>1.657446600380366</v>
+        <v>1.658488031914387</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8.071452743936083</v>
+        <v>8.076524319340663</v>
       </c>
       <c r="F15" t="n">
-        <v>1.657446600380366</v>
+        <v>1.658488031914387</v>
       </c>
       <c r="G15" t="n">
         <v>1.1</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6.905267230974355</v>
+        <v>6.909606051328223</v>
       </c>
       <c r="F16" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G16" t="n">
         <v>0.1</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.905267230974355</v>
+        <v>6.909606051328223</v>
       </c>
       <c r="F17" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G17" t="n">
         <v>1.1</v>
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6.905267230974355</v>
+        <v>6.909606051328223</v>
       </c>
       <c r="F18" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G18" t="n">
         <v>1.7</v>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6.905267230974355</v>
+        <v>6.909606051328223</v>
       </c>
       <c r="F19" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G19" t="n">
         <v>1.1</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.905267230974355</v>
+        <v>6.909606051328223</v>
       </c>
       <c r="F20" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G20" t="n">
         <v>1.1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6.905267230974355</v>
+        <v>6.909606051328223</v>
       </c>
       <c r="F21" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10.40382376985954</v>
+        <v>10.41036085536555</v>
       </c>
       <c r="F22" t="n">
-        <v>2.799959775096351</v>
+        <v>2.801719087524943</v>
       </c>
       <c r="G22" t="n">
         <v>0.1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.40382376985954</v>
+        <v>10.41036085536555</v>
       </c>
       <c r="F23" t="n">
-        <v>2.799959775096351</v>
+        <v>2.801719087524943</v>
       </c>
       <c r="G23" t="n">
         <v>0.6</v>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10.40382376985954</v>
+        <v>10.41036085536555</v>
       </c>
       <c r="F24" t="n">
-        <v>2.799959775096351</v>
+        <v>2.801719087524943</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.40382376985954</v>
+        <v>10.41036085536555</v>
       </c>
       <c r="F25" t="n">
-        <v>2.799959775096351</v>
+        <v>2.801719087524943</v>
       </c>
       <c r="G25" t="n">
         <v>1.1</v>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>12.73619479578299</v>
+        <v>12.74419739139043</v>
       </c>
       <c r="F26" t="n">
-        <v>1.657446600380366</v>
+        <v>1.658488031914387</v>
       </c>
       <c r="G26" t="n">
         <v>0.1</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12.73619479578299</v>
+        <v>12.74419739139043</v>
       </c>
       <c r="F27" t="n">
-        <v>1.657446600380366</v>
+        <v>1.658488031914387</v>
       </c>
       <c r="G27" t="n">
         <v>0.6</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.73619479578299</v>
+        <v>12.74419739139043</v>
       </c>
       <c r="F28" t="n">
-        <v>1.657446600380366</v>
+        <v>1.658488031914387</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.73619479578299</v>
+        <v>12.74419739139043</v>
       </c>
       <c r="F29" t="n">
-        <v>1.657446600380366</v>
+        <v>1.658488031914387</v>
       </c>
       <c r="G29" t="n">
         <v>1.1</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>11.57000928282127</v>
+        <v>11.57727912337799</v>
       </c>
       <c r="F30" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G30" t="n">
         <v>0.1</v>
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.57000928282127</v>
+        <v>11.57727912337799</v>
       </c>
       <c r="F31" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G31" t="n">
         <v>1.1</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>11.57000928282127</v>
+        <v>11.57727912337799</v>
       </c>
       <c r="F32" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G32" t="n">
         <v>1.7</v>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>11.57000928282127</v>
+        <v>11.57727912337799</v>
       </c>
       <c r="F33" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G33" t="n">
         <v>1.1</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>11.57000928282127</v>
+        <v>11.57727912337799</v>
       </c>
       <c r="F34" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G34" t="n">
         <v>1.1</v>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>11.57000928282127</v>
+        <v>11.57727912337799</v>
       </c>
       <c r="F35" t="n">
-        <v>2.228703187738359</v>
+        <v>2.230103559719665</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.562981976914531</v>
+        <v>1.563964053029377</v>
       </c>
       <c r="F36" t="n">
-        <v>2.690804407739044</v>
+        <v>2.692495134041453</v>
       </c>
       <c r="G36" t="n">
         <v>0.1</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.562981976914531</v>
+        <v>1.563964053029377</v>
       </c>
       <c r="F37" t="n">
-        <v>2.690804407739044</v>
+        <v>2.692495134041453</v>
       </c>
       <c r="G37" t="n">
         <v>0.6</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.562981976914531</v>
+        <v>1.563964053029377</v>
       </c>
       <c r="F38" t="n">
-        <v>2.690804407739044</v>
+        <v>2.692495134041453</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.562981976914531</v>
+        <v>1.563964053029377</v>
       </c>
       <c r="F39" t="n">
-        <v>2.690804407739044</v>
+        <v>2.692495134041453</v>
       </c>
       <c r="G39" t="n">
         <v>1.1</v>
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.560292858831664</v>
+        <v>3.562529915067857</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9046285861149367</v>
+        <v>0.9051969958217355</v>
       </c>
       <c r="G40" t="n">
         <v>0.1</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.560292858831664</v>
+        <v>3.562529915067857</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9046285861149367</v>
+        <v>0.9051969958217355</v>
       </c>
       <c r="G41" t="n">
         <v>0.6</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.560292858831664</v>
+        <v>3.562529915067857</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9046285861149367</v>
+        <v>0.9051969958217355</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1763,10 +1763,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.560292858831664</v>
+        <v>3.562529915067857</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9046285861149367</v>
+        <v>0.9051969958217355</v>
       </c>
       <c r="G43" t="n">
         <v>1.1</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.561637417873098</v>
+        <v>2.563246984048617</v>
       </c>
       <c r="F44" t="n">
-        <v>1.79771649692699</v>
+        <v>1.798846064931594</v>
       </c>
       <c r="G44" t="n">
         <v>0.1</v>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.561637417873098</v>
+        <v>2.563246984048617</v>
       </c>
       <c r="F45" t="n">
-        <v>1.79771649692699</v>
+        <v>1.798846064931594</v>
       </c>
       <c r="G45" t="n">
         <v>1.1</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.561637417873098</v>
+        <v>2.563246984048617</v>
       </c>
       <c r="F46" t="n">
-        <v>1.79771649692699</v>
+        <v>1.798846064931594</v>
       </c>
       <c r="G46" t="n">
         <v>1.7</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.561637417873098</v>
+        <v>2.563246984048617</v>
       </c>
       <c r="F47" t="n">
-        <v>1.79771649692699</v>
+        <v>1.798846064931594</v>
       </c>
       <c r="G47" t="n">
         <v>1.1</v>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.561637417873098</v>
+        <v>2.563246984048617</v>
       </c>
       <c r="F48" t="n">
-        <v>1.79771649692699</v>
+        <v>1.798846064931594</v>
       </c>
       <c r="G48" t="n">
         <v>1.1</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.561637417873098</v>
+        <v>2.563246984048617</v>
       </c>
       <c r="F49" t="n">
-        <v>1.79771649692699</v>
+        <v>1.798846064931594</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
